--- a/Correlations.xlsx
+++ b/Correlations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DEEE9A63-F05F-094E-A2B0-354010B9D7BB}"/>
+    <workbookView xWindow="15300" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DEEE9A63-F05F-094E-A2B0-354010B9D7BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -318,10 +318,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -336,6 +335,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -657,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FA2E79-CBC4-9644-BB72-0D85C65F05CF}">
   <dimension ref="A1:EN161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="EM148" sqref="EM148"/>
+    <sheetView tabSelected="1" topLeftCell="EA147" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="EO154" sqref="EO154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -688,8 +689,8 @@
     <col min="125" max="125" width="0.83203125" hidden="1" customWidth="1"/>
     <col min="126" max="126" width="0.33203125" customWidth="1"/>
     <col min="127" max="141" width="11.6640625" customWidth="1"/>
-    <col min="142" max="142" width="4.33203125" style="12" customWidth="1"/>
-    <col min="143" max="143" width="10.33203125" style="12" customWidth="1"/>
+    <col min="142" max="142" width="4.33203125" style="11" customWidth="1"/>
+    <col min="143" max="143" width="10.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -22617,7 +22618,7 @@
       <c r="EN126" s="1"/>
     </row>
     <row r="127" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="1">
@@ -22995,76 +22996,76 @@
       <c r="DV127" s="1">
         <v>5</v>
       </c>
-      <c r="DW127" s="2">
+      <c r="DW127" s="14">
         <f>PEARSON(B127:DV127,DW2:DW126)</f>
         <v>1</v>
       </c>
-      <c r="DX127" s="2">
+      <c r="DX127" s="14">
         <f t="shared" ref="DX127:EK127" si="0">PEARSON(C127:DW127,DX2:DX126)</f>
         <v>0.25340932230427243</v>
       </c>
-      <c r="DY127" s="2">
+      <c r="DY127" s="14">
         <f t="shared" si="0"/>
         <v>-2.1138084386726597E-2</v>
       </c>
-      <c r="DZ127" s="2">
+      <c r="DZ127" s="14">
         <f t="shared" si="0"/>
         <v>-0.10721050975047801</v>
       </c>
-      <c r="EA127" s="2">
+      <c r="EA127" s="14">
         <f t="shared" si="0"/>
         <v>-4.5195616731175732E-2</v>
       </c>
-      <c r="EB127" s="2">
+      <c r="EB127" s="14">
         <f t="shared" si="0"/>
         <v>-2.8885003952790325E-2</v>
       </c>
-      <c r="EC127" s="2">
+      <c r="EC127" s="14">
         <f t="shared" si="0"/>
         <v>5.7079290617209996E-2</v>
       </c>
-      <c r="ED127" s="2">
+      <c r="ED127" s="14">
         <f t="shared" si="0"/>
         <v>-2.7555317064532858E-2</v>
       </c>
-      <c r="EE127" s="2">
+      <c r="EE127" s="14">
         <f t="shared" si="0"/>
         <v>7.0609746899169393E-2</v>
       </c>
-      <c r="EF127" s="2">
+      <c r="EF127" s="14">
         <f t="shared" si="0"/>
         <v>-0.13005233897639909</v>
       </c>
-      <c r="EG127" s="2">
+      <c r="EG127" s="14">
         <f t="shared" si="0"/>
         <v>4.1271976314520724E-2</v>
       </c>
-      <c r="EH127" s="2">
+      <c r="EH127" s="14">
         <f t="shared" si="0"/>
         <v>5.9141618091584969E-2</v>
       </c>
-      <c r="EI127" s="2">
+      <c r="EI127" s="14">
         <f t="shared" si="0"/>
         <v>0.14443159324635144</v>
       </c>
-      <c r="EJ127" s="2">
+      <c r="EJ127" s="14">
         <f t="shared" si="0"/>
         <v>-2.5826511878518671E-2</v>
       </c>
-      <c r="EK127" s="2">
+      <c r="EK127" s="14">
         <f t="shared" si="0"/>
         <v>0.10583688792703826</v>
       </c>
-      <c r="EL127" s="12" t="s">
+      <c r="EL127" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="EM127" s="12" t="s">
+      <c r="EM127" s="11" t="s">
         <v>21</v>
       </c>
       <c r="EN127" s="1"/>
     </row>
     <row r="128" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B128" s="1">
@@ -23442,76 +23443,76 @@
       <c r="DV128" s="1">
         <v>4</v>
       </c>
-      <c r="DW128" s="2">
+      <c r="DW128" s="14">
         <f>PEARSON(B128:DV128,DW3:DW127)</f>
         <v>0.25340932230427243</v>
       </c>
-      <c r="DX128" s="2">
+      <c r="DX128" s="14">
         <f t="shared" ref="DX128:DX141" si="1">PEARSON(C128:DW128,DX3:DX127)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="DY128" s="2">
+      <c r="DY128" s="14">
         <f t="shared" ref="DY128:DY141" si="2">PEARSON(D128:DX128,DY3:DY127)</f>
         <v>-2.4576669571120632E-2</v>
       </c>
-      <c r="DZ128" s="2">
+      <c r="DZ128" s="14">
         <f t="shared" ref="DZ128:DZ141" si="3">PEARSON(E128:DY128,DZ3:DZ127)</f>
         <v>4.9497548207682707E-2</v>
       </c>
-      <c r="EA128" s="2">
+      <c r="EA128" s="14">
         <f t="shared" ref="EA128:EA141" si="4">PEARSON(F128:DZ128,EA3:EA127)</f>
         <v>-0.12551252640784033</v>
       </c>
-      <c r="EB128" s="2">
+      <c r="EB128" s="14">
         <f t="shared" ref="EB128:EB141" si="5">PEARSON(G128:EA128,EB3:EB127)</f>
         <v>7.7492964485791335E-2</v>
       </c>
-      <c r="EC128" s="2">
+      <c r="EC128" s="14">
         <f t="shared" ref="EC128:EC141" si="6">PEARSON(H128:EB128,EC3:EC127)</f>
         <v>0.16402933698248157</v>
       </c>
-      <c r="ED128" s="2">
+      <c r="ED128" s="14">
         <f t="shared" ref="ED128:ED141" si="7">PEARSON(I128:EC128,ED3:ED127)</f>
         <v>0.1704330706171662</v>
       </c>
-      <c r="EE128" s="2">
+      <c r="EE128" s="14">
         <f t="shared" ref="EE128:EE141" si="8">PEARSON(J128:ED128,EE3:EE127)</f>
         <v>0.18504132061590675</v>
       </c>
-      <c r="EF128" s="2">
+      <c r="EF128" s="14">
         <f t="shared" ref="EF128:EF141" si="9">PEARSON(K128:EE128,EF3:EF127)</f>
         <v>0.1940570225980513</v>
       </c>
-      <c r="EG128" s="2">
+      <c r="EG128" s="14">
         <f t="shared" ref="EG128:EG141" si="10">PEARSON(L128:EF128,EG3:EG127)</f>
         <v>5.1083115202788715E-2</v>
       </c>
-      <c r="EH128" s="2">
+      <c r="EH128" s="14">
         <f t="shared" ref="EH128:EH141" si="11">PEARSON(M128:EG128,EH3:EH127)</f>
         <v>8.2032656847363467E-2</v>
       </c>
-      <c r="EI128" s="2">
+      <c r="EI128" s="14">
         <f t="shared" ref="EI128:EI141" si="12">PEARSON(N128:EH128,EI3:EI127)</f>
         <v>0.16447842452759023</v>
       </c>
-      <c r="EJ128" s="2">
+      <c r="EJ128" s="14">
         <f t="shared" ref="EJ128:EJ141" si="13">PEARSON(O128:EI128,EJ3:EJ127)</f>
         <v>6.5233810391428185E-2</v>
       </c>
-      <c r="EK128" s="2">
+      <c r="EK128" s="14">
         <f t="shared" ref="EK128:EK141" si="14">PEARSON(P128:EJ128,EK3:EK127)</f>
         <v>0.16188701653333085</v>
       </c>
-      <c r="EL128" s="12" t="s">
+      <c r="EL128" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="EM128" s="12" t="s">
+      <c r="EM128" s="11" t="s">
         <v>22</v>
       </c>
       <c r="EN128" s="1"/>
     </row>
     <row r="129" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B129" s="1">
@@ -23889,76 +23890,76 @@
       <c r="DV129" s="1">
         <v>4</v>
       </c>
-      <c r="DW129" s="2">
+      <c r="DW129" s="14">
         <f>PEARSON(B129:DV129,DW4:DW128)</f>
         <v>-2.1138084386726597E-2</v>
       </c>
-      <c r="DX129" s="2">
+      <c r="DX129" s="14">
         <f t="shared" si="1"/>
         <v>-2.4576669571120632E-2</v>
       </c>
-      <c r="DY129" s="2">
+      <c r="DY129" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="DZ129" s="2">
+      <c r="DZ129" s="14">
         <f t="shared" si="3"/>
         <v>0.12455764592981386</v>
       </c>
-      <c r="EA129" s="2">
+      <c r="EA129" s="14">
         <f t="shared" si="4"/>
         <v>0.12482976537629027</v>
       </c>
-      <c r="EB129" s="2">
+      <c r="EB129" s="14">
         <f t="shared" si="5"/>
         <v>-1.9510243519149508E-2</v>
       </c>
-      <c r="EC129" s="2">
+      <c r="EC129" s="14">
         <f t="shared" si="6"/>
         <v>7.3791039246111592E-2</v>
       </c>
-      <c r="ED129" s="2">
+      <c r="ED129" s="14">
         <f t="shared" si="7"/>
         <v>2.8513990155965559E-2</v>
       </c>
-      <c r="EE129" s="2">
+      <c r="EE129" s="14">
         <f t="shared" si="8"/>
         <v>0.1944068465604675</v>
       </c>
-      <c r="EF129" s="2">
+      <c r="EF129" s="14">
         <f t="shared" si="9"/>
         <v>2.06377447445075E-2</v>
       </c>
-      <c r="EG129" s="2">
+      <c r="EG129" s="14">
         <f t="shared" si="10"/>
         <v>0.20562157746120974</v>
       </c>
-      <c r="EH129" s="2">
+      <c r="EH129" s="14">
         <f t="shared" si="11"/>
         <v>0.17807319740898622</v>
       </c>
-      <c r="EI129" s="2">
+      <c r="EI129" s="14">
         <f t="shared" si="12"/>
         <v>0.10889714285533966</v>
       </c>
-      <c r="EJ129" s="2">
+      <c r="EJ129" s="14">
         <f t="shared" si="13"/>
         <v>0.11995858146986141</v>
       </c>
-      <c r="EK129" s="2">
+      <c r="EK129" s="14">
         <f t="shared" si="14"/>
         <v>0.19274109136340137</v>
       </c>
-      <c r="EL129" s="12" t="s">
+      <c r="EL129" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="EM129" s="12" t="s">
+      <c r="EM129" s="11" t="s">
         <v>23</v>
       </c>
       <c r="EN129" s="1"/>
     </row>
     <row r="130" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B130" s="1">
@@ -24336,76 +24337,76 @@
       <c r="DV130" s="1">
         <v>4</v>
       </c>
-      <c r="DW130" s="2">
+      <c r="DW130" s="14">
         <f>PEARSON(B130:DV130,DW5:DW129)</f>
         <v>-0.10721050975047801</v>
       </c>
-      <c r="DX130" s="2">
+      <c r="DX130" s="14">
         <f t="shared" si="1"/>
         <v>4.9497548207682707E-2</v>
       </c>
-      <c r="DY130" s="2">
+      <c r="DY130" s="14">
         <f t="shared" si="2"/>
         <v>0.12455764592981386</v>
       </c>
-      <c r="DZ130" s="2">
+      <c r="DZ130" s="14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="EA130" s="2">
+      <c r="EA130" s="14">
         <f t="shared" si="4"/>
         <v>0.2369999701668791</v>
       </c>
-      <c r="EB130" s="2">
+      <c r="EB130" s="14">
         <f t="shared" si="5"/>
         <v>0.18449008304567402</v>
       </c>
-      <c r="EC130" s="2">
+      <c r="EC130" s="14">
         <f t="shared" si="6"/>
         <v>0.10880171305016705</v>
       </c>
-      <c r="ED130" s="2">
+      <c r="ED130" s="14">
         <f t="shared" si="7"/>
         <v>0.24985138009405394</v>
       </c>
-      <c r="EE130" s="2">
+      <c r="EE130" s="14">
         <f t="shared" si="8"/>
         <v>0.21512116396215436</v>
       </c>
-      <c r="EF130" s="2">
+      <c r="EF130" s="14">
         <f t="shared" si="9"/>
         <v>0.24161838409077632</v>
       </c>
-      <c r="EG130" s="2">
+      <c r="EG130" s="14">
         <f t="shared" si="10"/>
         <v>0.26539177185779578</v>
       </c>
-      <c r="EH130" s="2">
+      <c r="EH130" s="14">
         <f t="shared" si="11"/>
         <v>0.27423927789066777</v>
       </c>
-      <c r="EI130" s="2">
+      <c r="EI130" s="14">
         <f t="shared" si="12"/>
         <v>0.24316304344372494</v>
       </c>
-      <c r="EJ130" s="2">
+      <c r="EJ130" s="14">
         <f t="shared" si="13"/>
         <v>0.13994792350257362</v>
       </c>
-      <c r="EK130" s="2">
+      <c r="EK130" s="14">
         <f t="shared" si="14"/>
         <v>0.31904268946039083</v>
       </c>
-      <c r="EL130" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="EM130" s="12" t="s">
+      <c r="EL130" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="EM130" s="11" t="s">
         <v>24</v>
       </c>
       <c r="EN130" s="1"/>
     </row>
     <row r="131" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B131" s="1">
@@ -24783,76 +24784,76 @@
       <c r="DV131" s="1">
         <v>4</v>
       </c>
-      <c r="DW131" s="2">
+      <c r="DW131" s="14">
         <f>PEARSON(B131:DV131,DW6:DW130)</f>
         <v>-4.5195616731175732E-2</v>
       </c>
-      <c r="DX131" s="2">
+      <c r="DX131" s="14">
         <f t="shared" si="1"/>
         <v>-0.12551252640784033</v>
       </c>
-      <c r="DY131" s="2">
+      <c r="DY131" s="14">
         <f t="shared" si="2"/>
         <v>0.12482976537629027</v>
       </c>
-      <c r="DZ131" s="2">
+      <c r="DZ131" s="14">
         <f t="shared" si="3"/>
         <v>0.2369999701668791</v>
       </c>
-      <c r="EA131" s="2">
+      <c r="EA131" s="14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="EB131" s="2">
+      <c r="EB131" s="14">
         <f t="shared" si="5"/>
         <v>0.25752463447192236</v>
       </c>
-      <c r="EC131" s="2">
+      <c r="EC131" s="14">
         <f t="shared" si="6"/>
         <v>0.15315009930908777</v>
       </c>
-      <c r="ED131" s="2">
+      <c r="ED131" s="14">
         <f t="shared" si="7"/>
         <v>0.16868436336565479</v>
       </c>
-      <c r="EE131" s="2">
+      <c r="EE131" s="14">
         <f t="shared" si="8"/>
         <v>0.14690890894669223</v>
       </c>
-      <c r="EF131" s="2">
+      <c r="EF131" s="14">
         <f t="shared" si="9"/>
         <v>0.11563492120948266</v>
       </c>
-      <c r="EG131" s="2">
+      <c r="EG131" s="14">
         <f t="shared" si="10"/>
         <v>0.34043685521257649</v>
       </c>
-      <c r="EH131" s="2">
+      <c r="EH131" s="14">
         <f t="shared" si="11"/>
         <v>0.31743737006970951</v>
       </c>
-      <c r="EI131" s="2">
+      <c r="EI131" s="14">
         <f t="shared" si="12"/>
         <v>0.21125489061734745</v>
       </c>
-      <c r="EJ131" s="2">
+      <c r="EJ131" s="14">
         <f t="shared" si="13"/>
         <v>0.12894165891341189</v>
       </c>
-      <c r="EK131" s="2">
+      <c r="EK131" s="14">
         <f t="shared" si="14"/>
         <v>0.27991452131566058</v>
       </c>
-      <c r="EL131" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="EM131" s="12" t="s">
+      <c r="EL131" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="EM131" s="11" t="s">
         <v>25</v>
       </c>
       <c r="EN131" s="1"/>
     </row>
     <row r="132" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B132" s="1">
@@ -25230,76 +25231,76 @@
       <c r="DV132" s="1">
         <v>4</v>
       </c>
-      <c r="DW132" s="2">
+      <c r="DW132" s="14">
         <f>PEARSON(B132:DV132,DW7:DW131)</f>
         <v>-2.8885003952790325E-2</v>
       </c>
-      <c r="DX132" s="2">
+      <c r="DX132" s="14">
         <f t="shared" si="1"/>
         <v>7.7492964485791335E-2</v>
       </c>
-      <c r="DY132" s="2">
+      <c r="DY132" s="14">
         <f t="shared" si="2"/>
         <v>-1.9510243519149508E-2</v>
       </c>
-      <c r="DZ132" s="2">
+      <c r="DZ132" s="14">
         <f t="shared" si="3"/>
         <v>0.18449008304567402</v>
       </c>
-      <c r="EA132" s="2">
+      <c r="EA132" s="14">
         <f t="shared" si="4"/>
         <v>0.25752463447192236</v>
       </c>
-      <c r="EB132" s="2">
+      <c r="EB132" s="14">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="EC132" s="2">
+      <c r="EC132" s="14">
         <f t="shared" si="6"/>
         <v>0.35215389325025809</v>
       </c>
-      <c r="ED132" s="2">
+      <c r="ED132" s="14">
         <f t="shared" si="7"/>
         <v>0.40407639265367634</v>
       </c>
-      <c r="EE132" s="2">
+      <c r="EE132" s="14">
         <f t="shared" si="8"/>
         <v>0.32251295708536026</v>
       </c>
-      <c r="EF132" s="2">
+      <c r="EF132" s="14">
         <f t="shared" si="9"/>
         <v>0.25416382141412547</v>
       </c>
-      <c r="EG132" s="2">
+      <c r="EG132" s="14">
         <f t="shared" si="10"/>
         <v>0.44081847198431329</v>
       </c>
-      <c r="EH132" s="2">
+      <c r="EH132" s="14">
         <f t="shared" si="11"/>
         <v>0.38279442882174142</v>
       </c>
-      <c r="EI132" s="2">
+      <c r="EI132" s="14">
         <f t="shared" si="12"/>
         <v>0.3600976547523056</v>
       </c>
-      <c r="EJ132" s="2">
+      <c r="EJ132" s="14">
         <f t="shared" si="13"/>
         <v>0.29431687125985784</v>
       </c>
-      <c r="EK132" s="2">
+      <c r="EK132" s="14">
         <f t="shared" si="14"/>
         <v>0.33955070022468126</v>
       </c>
-      <c r="EL132" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="EM132" s="12" t="s">
+      <c r="EL132" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM132" s="11" t="s">
         <v>26</v>
       </c>
       <c r="EN132" s="1"/>
     </row>
     <row r="133" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B133" s="1">
@@ -25677,76 +25678,76 @@
       <c r="DV133" s="1">
         <v>5</v>
       </c>
-      <c r="DW133" s="2">
+      <c r="DW133" s="14">
         <f>PEARSON(B133:DV133,DW8:DW132)</f>
         <v>5.7079290617209996E-2</v>
       </c>
-      <c r="DX133" s="2">
+      <c r="DX133" s="14">
         <f t="shared" si="1"/>
         <v>0.16402933698248157</v>
       </c>
-      <c r="DY133" s="2">
+      <c r="DY133" s="14">
         <f t="shared" si="2"/>
         <v>7.3791039246111592E-2</v>
       </c>
-      <c r="DZ133" s="2">
+      <c r="DZ133" s="14">
         <f t="shared" si="3"/>
         <v>0.10880171305016705</v>
       </c>
-      <c r="EA133" s="2">
+      <c r="EA133" s="14">
         <f t="shared" si="4"/>
         <v>0.15315009930908777</v>
       </c>
-      <c r="EB133" s="2">
+      <c r="EB133" s="14">
         <f t="shared" si="5"/>
         <v>0.35215389325025809</v>
       </c>
-      <c r="EC133" s="2">
+      <c r="EC133" s="14">
         <f t="shared" si="6"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="ED133" s="2">
+      <c r="ED133" s="14">
         <f t="shared" si="7"/>
         <v>0.49820941388308637</v>
       </c>
-      <c r="EE133" s="2">
+      <c r="EE133" s="14">
         <f t="shared" si="8"/>
         <v>0.42142741885740087</v>
       </c>
-      <c r="EF133" s="2">
+      <c r="EF133" s="14">
         <f t="shared" si="9"/>
         <v>0.37253824520044415</v>
       </c>
-      <c r="EG133" s="2">
+      <c r="EG133" s="14">
         <f t="shared" si="10"/>
         <v>0.49478441496918585</v>
       </c>
-      <c r="EH133" s="2">
+      <c r="EH133" s="14">
         <f t="shared" si="11"/>
         <v>0.42969251831716049</v>
       </c>
-      <c r="EI133" s="2">
+      <c r="EI133" s="14">
         <f t="shared" si="12"/>
         <v>0.45339968443034834</v>
       </c>
-      <c r="EJ133" s="2">
+      <c r="EJ133" s="14">
         <f t="shared" si="13"/>
         <v>0.40951936615353723</v>
       </c>
-      <c r="EK133" s="2">
+      <c r="EK133" s="14">
         <f t="shared" si="14"/>
         <v>0.32362433441241317</v>
       </c>
-      <c r="EL133" s="12" t="s">
+      <c r="EL133" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="EM133" s="12" t="s">
+      <c r="EM133" s="11" t="s">
         <v>27</v>
       </c>
       <c r="EN133" s="1"/>
     </row>
     <row r="134" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B134" s="1">
@@ -26124,76 +26125,76 @@
       <c r="DV134" s="1">
         <v>4</v>
       </c>
-      <c r="DW134" s="2">
+      <c r="DW134" s="14">
         <f>PEARSON(B134:DV134,DW9:DW133)</f>
         <v>-2.7555317064532858E-2</v>
       </c>
-      <c r="DX134" s="2">
+      <c r="DX134" s="14">
         <f t="shared" si="1"/>
         <v>0.1704330706171662</v>
       </c>
-      <c r="DY134" s="2">
+      <c r="DY134" s="14">
         <f t="shared" si="2"/>
         <v>2.8513990155965559E-2</v>
       </c>
-      <c r="DZ134" s="2">
+      <c r="DZ134" s="14">
         <f t="shared" si="3"/>
         <v>0.24985138009405394</v>
       </c>
-      <c r="EA134" s="2">
+      <c r="EA134" s="14">
         <f t="shared" si="4"/>
         <v>0.16868436336565479</v>
       </c>
-      <c r="EB134" s="2">
+      <c r="EB134" s="14">
         <f t="shared" si="5"/>
         <v>0.40407639265367634</v>
       </c>
-      <c r="EC134" s="2">
+      <c r="EC134" s="14">
         <f t="shared" si="6"/>
         <v>0.49820941388308637</v>
       </c>
-      <c r="ED134" s="2">
+      <c r="ED134" s="14">
         <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="EE134" s="2">
+      <c r="EE134" s="14">
         <f t="shared" si="8"/>
         <v>0.57807884694259526</v>
       </c>
-      <c r="EF134" s="2">
+      <c r="EF134" s="14">
         <f t="shared" si="9"/>
         <v>0.44491790261841785</v>
       </c>
-      <c r="EG134" s="2">
+      <c r="EG134" s="14">
         <f t="shared" si="10"/>
         <v>0.65193468656174935</v>
       </c>
-      <c r="EH134" s="2">
+      <c r="EH134" s="14">
         <f t="shared" si="11"/>
         <v>0.54599758317011315</v>
       </c>
-      <c r="EI134" s="2">
+      <c r="EI134" s="14">
         <f t="shared" si="12"/>
         <v>0.59102485613965761</v>
       </c>
-      <c r="EJ134" s="2">
+      <c r="EJ134" s="14">
         <f t="shared" si="13"/>
         <v>0.49800707673615485</v>
       </c>
-      <c r="EK134" s="2">
+      <c r="EK134" s="14">
         <f t="shared" si="14"/>
         <v>0.44237770538807186</v>
       </c>
-      <c r="EL134" s="12" t="s">
+      <c r="EL134" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="EM134" s="12" t="s">
+      <c r="EM134" s="11" t="s">
         <v>28</v>
       </c>
       <c r="EN134" s="1"/>
     </row>
     <row r="135" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B135" s="1">
@@ -26571,76 +26572,76 @@
       <c r="DV135" s="1">
         <v>5</v>
       </c>
-      <c r="DW135" s="2">
+      <c r="DW135" s="14">
         <f>PEARSON(B135:DV135,DW10:DW134)</f>
         <v>7.0609746899169393E-2</v>
       </c>
-      <c r="DX135" s="2">
+      <c r="DX135" s="14">
         <f t="shared" si="1"/>
         <v>0.18504132061590675</v>
       </c>
-      <c r="DY135" s="2">
+      <c r="DY135" s="14">
         <f t="shared" si="2"/>
         <v>0.1944068465604675</v>
       </c>
-      <c r="DZ135" s="2">
+      <c r="DZ135" s="14">
         <f t="shared" si="3"/>
         <v>0.21512116396215436</v>
       </c>
-      <c r="EA135" s="2">
+      <c r="EA135" s="14">
         <f t="shared" si="4"/>
         <v>0.14690890894669223</v>
       </c>
-      <c r="EB135" s="2">
+      <c r="EB135" s="14">
         <f t="shared" si="5"/>
         <v>0.32251295708536026</v>
       </c>
-      <c r="EC135" s="2">
+      <c r="EC135" s="14">
         <f t="shared" si="6"/>
         <v>0.42142741885740087</v>
       </c>
-      <c r="ED135" s="2">
+      <c r="ED135" s="14">
         <f t="shared" si="7"/>
         <v>0.57807884694259526</v>
       </c>
-      <c r="EE135" s="2">
+      <c r="EE135" s="14">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="EF135" s="2">
+      <c r="EF135" s="14">
         <f t="shared" si="9"/>
         <v>0.63234195119134939</v>
       </c>
-      <c r="EG135" s="2">
+      <c r="EG135" s="14">
         <f t="shared" si="10"/>
         <v>0.72824125027412934</v>
       </c>
-      <c r="EH135" s="2">
+      <c r="EH135" s="14">
         <f t="shared" si="11"/>
         <v>0.59301865300944034</v>
       </c>
-      <c r="EI135" s="2">
+      <c r="EI135" s="14">
         <f t="shared" si="12"/>
         <v>0.64800432372210937</v>
       </c>
-      <c r="EJ135" s="2">
+      <c r="EJ135" s="14">
         <f t="shared" si="13"/>
         <v>0.53717873643173986</v>
       </c>
-      <c r="EK135" s="2">
+      <c r="EK135" s="14">
         <f t="shared" si="14"/>
         <v>0.38454939348551492</v>
       </c>
-      <c r="EL135" s="12" t="s">
+      <c r="EL135" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="EM135" s="12" t="s">
+      <c r="EM135" s="11" t="s">
         <v>29</v>
       </c>
       <c r="EN135" s="1"/>
     </row>
     <row r="136" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B136" s="1">
@@ -27018,76 +27019,76 @@
       <c r="DV136" s="1">
         <v>5</v>
       </c>
-      <c r="DW136" s="2">
+      <c r="DW136" s="14">
         <f>PEARSON(B136:DV136,DW11:DW135)</f>
         <v>-0.13005233897639909</v>
       </c>
-      <c r="DX136" s="2">
+      <c r="DX136" s="14">
         <f t="shared" si="1"/>
         <v>0.1940570225980513</v>
       </c>
-      <c r="DY136" s="2">
+      <c r="DY136" s="14">
         <f t="shared" si="2"/>
         <v>2.06377447445075E-2</v>
       </c>
-      <c r="DZ136" s="2">
+      <c r="DZ136" s="14">
         <f t="shared" si="3"/>
         <v>0.24161838409077632</v>
       </c>
-      <c r="EA136" s="2">
+      <c r="EA136" s="14">
         <f t="shared" si="4"/>
         <v>0.11563492120948266</v>
       </c>
-      <c r="EB136" s="2">
+      <c r="EB136" s="14">
         <f t="shared" si="5"/>
         <v>0.25416382141412547</v>
       </c>
-      <c r="EC136" s="2">
+      <c r="EC136" s="14">
         <f t="shared" si="6"/>
         <v>0.37253824520044415</v>
       </c>
-      <c r="ED136" s="2">
+      <c r="ED136" s="14">
         <f t="shared" si="7"/>
         <v>0.44491790261841785</v>
       </c>
-      <c r="EE136" s="2">
+      <c r="EE136" s="14">
         <f t="shared" si="8"/>
         <v>0.63234195119134939</v>
       </c>
-      <c r="EF136" s="2">
+      <c r="EF136" s="14">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="EG136" s="2">
+      <c r="EG136" s="14">
         <f t="shared" si="10"/>
         <v>0.66666038576667019</v>
       </c>
-      <c r="EH136" s="2">
+      <c r="EH136" s="14">
         <f t="shared" si="11"/>
         <v>0.59668577066740169</v>
       </c>
-      <c r="EI136" s="2">
+      <c r="EI136" s="14">
         <f t="shared" si="12"/>
         <v>0.58465353854282798</v>
       </c>
-      <c r="EJ136" s="2">
+      <c r="EJ136" s="14">
         <f t="shared" si="13"/>
         <v>0.56058973031562609</v>
       </c>
-      <c r="EK136" s="2">
+      <c r="EK136" s="14">
         <f t="shared" si="14"/>
         <v>0.37516748437031794</v>
       </c>
-      <c r="EL136" s="12" t="s">
+      <c r="EL136" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="EM136" s="12" t="s">
+      <c r="EM136" s="11" t="s">
         <v>30</v>
       </c>
       <c r="EN136" s="1"/>
     </row>
     <row r="137" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B137" s="1">
@@ -27465,76 +27466,76 @@
       <c r="DV137" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DW137" s="2">
+      <c r="DW137" s="14">
         <f>PEARSON(B137:DV137,DW12:DW136)</f>
         <v>-2.0244358729832573E-2</v>
       </c>
-      <c r="DX137" s="2">
+      <c r="DX137" s="14">
         <f t="shared" si="1"/>
         <v>1.9856347355040695E-2</v>
       </c>
-      <c r="DY137" s="2">
+      <c r="DY137" s="14">
         <f t="shared" si="2"/>
         <v>0.18535104107104422</v>
       </c>
-      <c r="DZ137" s="2">
+      <c r="DZ137" s="14">
         <f t="shared" si="3"/>
         <v>0.24854050835725863</v>
       </c>
-      <c r="EA137" s="2">
+      <c r="EA137" s="14">
         <f t="shared" si="4"/>
         <v>0.33009481195408785</v>
       </c>
-      <c r="EB137" s="2">
+      <c r="EB137" s="14">
         <f t="shared" si="5"/>
         <v>0.43353792909467215</v>
       </c>
-      <c r="EC137" s="2">
+      <c r="EC137" s="14">
         <f t="shared" si="6"/>
         <v>0.49092149604654384</v>
       </c>
-      <c r="ED137" s="2">
+      <c r="ED137" s="14">
         <f t="shared" si="7"/>
         <v>0.65927780542131442</v>
       </c>
-      <c r="EE137" s="2">
+      <c r="EE137" s="14">
         <f t="shared" si="8"/>
         <v>0.7395917815399331</v>
       </c>
-      <c r="EF137" s="2">
+      <c r="EF137" s="14">
         <f t="shared" si="9"/>
         <v>0.67542813392473622</v>
       </c>
-      <c r="EG137" s="2">
+      <c r="EG137" s="14">
         <f t="shared" si="10"/>
         <v>0.99999738047816578</v>
       </c>
-      <c r="EH137" s="2">
+      <c r="EH137" s="14">
         <f t="shared" si="11"/>
         <v>0.87616882181056455</v>
       </c>
-      <c r="EI137" s="2">
+      <c r="EI137" s="14">
         <f t="shared" si="12"/>
         <v>0.8225926756306321</v>
       </c>
-      <c r="EJ137" s="2">
+      <c r="EJ137" s="14">
         <f t="shared" si="13"/>
         <v>0.66975461550197757</v>
       </c>
-      <c r="EK137" s="2">
+      <c r="EK137" s="14">
         <f t="shared" si="14"/>
         <v>0.61119861161689382</v>
       </c>
-      <c r="EL137" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="EM137" s="12" t="s">
+      <c r="EL137" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="EM137" s="11" t="s">
         <v>31</v>
       </c>
       <c r="EN137" s="1"/>
     </row>
     <row r="138" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B138" s="1">
@@ -27912,76 +27913,76 @@
       <c r="DV138" s="1">
         <v>6</v>
       </c>
-      <c r="DW138" s="2">
+      <c r="DW138" s="14">
         <f>PEARSON(B138:DV138,DW13:DW137)</f>
         <v>5.9812646779905922E-2</v>
       </c>
-      <c r="DX138" s="2">
+      <c r="DX138" s="14">
         <f t="shared" si="1"/>
         <v>8.2956606276335193E-2</v>
       </c>
-      <c r="DY138" s="2">
+      <c r="DY138" s="14">
         <f t="shared" si="2"/>
         <v>0.17857591294218494</v>
       </c>
-      <c r="DZ138" s="2">
+      <c r="DZ138" s="14">
         <f t="shared" si="3"/>
         <v>0.27459775142649429</v>
       </c>
-      <c r="EA138" s="2">
+      <c r="EA138" s="14">
         <f t="shared" si="4"/>
         <v>0.31763949108191381</v>
       </c>
-      <c r="EB138" s="2">
+      <c r="EB138" s="14">
         <f t="shared" si="5"/>
         <v>0.38290908600465212</v>
       </c>
-      <c r="EC138" s="2">
+      <c r="EC138" s="14">
         <f t="shared" si="6"/>
         <v>0.42974925391922114</v>
       </c>
-      <c r="ED138" s="2">
+      <c r="ED138" s="14">
         <f t="shared" si="7"/>
         <v>0.54590115404109552</v>
       </c>
-      <c r="EE138" s="2">
+      <c r="EE138" s="14">
         <f t="shared" si="8"/>
         <v>0.59289786192914673</v>
       </c>
-      <c r="EF138" s="2">
+      <c r="EF138" s="14">
         <f t="shared" si="9"/>
         <v>0.59659783554096912</v>
       </c>
-      <c r="EG138" s="2">
+      <c r="EG138" s="14">
         <f t="shared" si="10"/>
         <v>0.8703435067137687</v>
       </c>
-      <c r="EH138" s="2">
+      <c r="EH138" s="14">
         <f t="shared" si="11"/>
         <v>0.9999999806607941</v>
       </c>
-      <c r="EI138" s="2">
+      <c r="EI138" s="14">
         <f t="shared" si="12"/>
         <v>0.80374567069324676</v>
       </c>
-      <c r="EJ138" s="2">
+      <c r="EJ138" s="14">
         <f t="shared" si="13"/>
         <v>0.66781355820135646</v>
       </c>
-      <c r="EK138" s="2">
+      <c r="EK138" s="14">
         <f t="shared" si="14"/>
         <v>0.64186707212368754</v>
       </c>
-      <c r="EL138" s="12" t="s">
+      <c r="EL138" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="EM138" s="12" t="s">
+      <c r="EM138" s="11" t="s">
         <v>32</v>
       </c>
       <c r="EN138" s="1"/>
     </row>
     <row r="139" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B139" s="1">
@@ -28359,76 +28360,76 @@
       <c r="DV139" s="1">
         <v>6</v>
       </c>
-      <c r="DW139" s="2">
+      <c r="DW139" s="14">
         <f>PEARSON(B139:DV139,DW14:DW138)</f>
         <v>0.14474624801776623</v>
       </c>
-      <c r="DX139" s="2">
+      <c r="DX139" s="14">
         <f t="shared" si="1"/>
         <v>0.16468283587217034</v>
       </c>
-      <c r="DY139" s="2">
+      <c r="DY139" s="14">
         <f t="shared" si="2"/>
         <v>0.10938025633690071</v>
       </c>
-      <c r="DZ139" s="2">
+      <c r="DZ139" s="14">
         <f t="shared" si="3"/>
         <v>0.24350878601581463</v>
       </c>
-      <c r="EA139" s="2">
+      <c r="EA139" s="14">
         <f t="shared" si="4"/>
         <v>0.21145996357038563</v>
       </c>
-      <c r="EB139" s="2">
+      <c r="EB139" s="14">
         <f t="shared" si="5"/>
         <v>0.36020859413836037</v>
       </c>
-      <c r="EC139" s="2">
+      <c r="EC139" s="14">
         <f t="shared" si="6"/>
         <v>0.45345430923559871</v>
       </c>
-      <c r="ED139" s="2">
+      <c r="ED139" s="14">
         <f t="shared" si="7"/>
         <v>0.59094323864799847</v>
       </c>
-      <c r="EE139" s="2">
+      <c r="EE139" s="14">
         <f t="shared" si="8"/>
         <v>0.64790261427001439</v>
       </c>
-      <c r="EF139" s="2">
+      <c r="EF139" s="14">
         <f t="shared" si="9"/>
         <v>0.58457282225203222</v>
       </c>
-      <c r="EG139" s="2">
+      <c r="EG139" s="14">
         <f t="shared" si="10"/>
         <v>0.82040298115658805</v>
       </c>
-      <c r="EH139" s="2">
+      <c r="EH139" s="14">
         <f t="shared" si="11"/>
         <v>0.80373605886858168</v>
       </c>
-      <c r="EI139" s="2">
+      <c r="EI139" s="14">
         <f t="shared" si="12"/>
         <v>0.99999999737873391</v>
       </c>
-      <c r="EJ139" s="2">
+      <c r="EJ139" s="14">
         <f t="shared" si="13"/>
         <v>0.74151477896360851</v>
       </c>
-      <c r="EK139" s="2">
+      <c r="EK139" s="14">
         <f t="shared" si="14"/>
         <v>0.62769036240390119</v>
       </c>
-      <c r="EL139" s="12" t="s">
+      <c r="EL139" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="EM139" s="12" t="s">
+      <c r="EM139" s="11" t="s">
         <v>33</v>
       </c>
       <c r="EN139" s="1"/>
     </row>
     <row r="140" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B140" s="1">
@@ -28806,76 +28807,76 @@
       <c r="DV140" s="1">
         <v>10</v>
       </c>
-      <c r="DW140" s="2">
+      <c r="DW140" s="14">
         <f>PEARSON(B140:DV140,DW15:DW139)</f>
         <v>-2.6049005816999714E-2</v>
       </c>
-      <c r="DX140" s="2">
+      <c r="DX140" s="14">
         <f t="shared" si="1"/>
         <v>6.5093127619633082E-2</v>
       </c>
-      <c r="DY140" s="2">
+      <c r="DY140" s="14">
         <f t="shared" si="2"/>
         <v>0.11983903130585875</v>
       </c>
-      <c r="DZ140" s="2">
+      <c r="DZ140" s="14">
         <f t="shared" si="3"/>
         <v>0.14030339796259944</v>
       </c>
-      <c r="EA140" s="2">
+      <c r="EA140" s="14">
         <f t="shared" si="4"/>
         <v>0.12914800308795157</v>
       </c>
-      <c r="EB140" s="2">
+      <c r="EB140" s="14">
         <f t="shared" si="5"/>
         <v>0.29443065012756559</v>
       </c>
-      <c r="EC140" s="2">
+      <c r="EC140" s="14">
         <f t="shared" si="6"/>
         <v>0.40957540869721304</v>
       </c>
-      <c r="ED140" s="2">
+      <c r="ED140" s="14">
         <f t="shared" si="7"/>
         <v>0.49791855947920743</v>
       </c>
-      <c r="EE140" s="2">
+      <c r="EE140" s="14">
         <f t="shared" si="8"/>
         <v>0.53706454796351644</v>
       </c>
-      <c r="EF140" s="2">
+      <c r="EF140" s="14">
         <f t="shared" si="9"/>
         <v>0.56051065699495806</v>
       </c>
-      <c r="EG140" s="2">
+      <c r="EG140" s="14">
         <f t="shared" si="10"/>
         <v>0.67107736589517397</v>
       </c>
-      <c r="EH140" s="2">
+      <c r="EH140" s="14">
         <f t="shared" si="11"/>
         <v>0.66778576449048355</v>
       </c>
-      <c r="EI140" s="2">
+      <c r="EI140" s="14">
         <f t="shared" si="12"/>
         <v>0.74150830636161547</v>
       </c>
-      <c r="EJ140" s="2">
+      <c r="EJ140" s="14">
         <f t="shared" si="13"/>
         <v>0.99999999911577153</v>
       </c>
-      <c r="EK140" s="2">
+      <c r="EK140" s="14">
         <f t="shared" si="14"/>
         <v>0.62322896662500804</v>
       </c>
-      <c r="EL140" s="12" t="s">
+      <c r="EL140" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="EM140" s="12" t="s">
+      <c r="EM140" s="11" t="s">
         <v>34</v>
       </c>
       <c r="EN140" s="1"/>
     </row>
     <row r="141" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B141" s="1">
@@ -29253,76 +29254,76 @@
       <c r="DV141" s="1">
         <v>63.33</v>
       </c>
-      <c r="DW141" s="2">
+      <c r="DW141" s="14">
         <f>PEARSON(B141:DV141,DW16:DW140)</f>
         <v>0.10547423351964311</v>
       </c>
-      <c r="DX141" s="2">
+      <c r="DX141" s="14">
         <f t="shared" si="1"/>
         <v>0.16192400279883637</v>
       </c>
-      <c r="DY141" s="2">
+      <c r="DY141" s="14">
         <f t="shared" si="2"/>
         <v>0.19288305755480714</v>
       </c>
-      <c r="DZ141" s="2">
+      <c r="DZ141" s="14">
         <f t="shared" si="3"/>
         <v>0.31896509555273944</v>
       </c>
-      <c r="EA141" s="2">
+      <c r="EA141" s="14">
         <f t="shared" si="4"/>
         <v>0.28004850651280122</v>
       </c>
-      <c r="EB141" s="2">
+      <c r="EB141" s="14">
         <f t="shared" si="5"/>
         <v>0.33962979583710251</v>
       </c>
-      <c r="EC141" s="2">
+      <c r="EC141" s="14">
         <f t="shared" si="6"/>
         <v>0.32366804809916427</v>
       </c>
-      <c r="ED141" s="2">
+      <c r="ED141" s="14">
         <f t="shared" si="7"/>
         <v>0.4423129595864379</v>
       </c>
-      <c r="EE141" s="2">
+      <c r="EE141" s="14">
         <f t="shared" si="8"/>
         <v>0.38444829931528568</v>
       </c>
-      <c r="EF141" s="2">
+      <c r="EF141" s="14">
         <f t="shared" si="9"/>
         <v>0.37509267053681056</v>
       </c>
-      <c r="EG141" s="2">
+      <c r="EG141" s="14">
         <f t="shared" si="10"/>
         <v>0.60653105590583178</v>
       </c>
-      <c r="EH141" s="2">
+      <c r="EH141" s="14">
         <f t="shared" si="11"/>
         <v>0.64185099947786417</v>
       </c>
-      <c r="EI141" s="2">
+      <c r="EI141" s="14">
         <f t="shared" si="12"/>
         <v>0.62768750330412648</v>
       </c>
-      <c r="EJ141" s="2">
+      <c r="EJ141" s="14">
         <f t="shared" si="13"/>
         <v>0.62323415176396701</v>
       </c>
-      <c r="EK141" s="2">
+      <c r="EK141" s="14">
         <f t="shared" si="14"/>
         <v>0.99999999988378918</v>
       </c>
-      <c r="EL141" s="12" t="s">
+      <c r="EL141" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="EM141" s="12" t="s">
+      <c r="EM141" s="11" t="s">
         <v>35</v>
       </c>
       <c r="EN141" s="1"/>
     </row>
     <row r="142" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B142" s="1"/>
@@ -29463,16 +29464,16 @@
       <c r="EH142" s="1"/>
       <c r="EI142" s="1"/>
       <c r="EJ142" s="1"/>
-      <c r="EK142" s="3"/>
+      <c r="EK142" s="2"/>
       <c r="EN142" s="1"/>
     </row>
     <row r="143" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -29643,12 +29644,12 @@
       <c r="EN143" s="1"/>
     </row>
     <row r="144" spans="1:144" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -29819,12 +29820,12 @@
       <c r="EN144" s="1"/>
     </row>
     <row r="145" spans="1:144" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -29947,75 +29948,75 @@
       <c r="DT145" s="1"/>
       <c r="DU145" s="1"/>
       <c r="DV145" s="1"/>
-      <c r="DW145" s="2">
+      <c r="DW145" s="14">
         <f>IF(ABS(DW148)&gt;ABS(DW150), DW148, DW150)</f>
         <v>0.25340932230427243</v>
       </c>
-      <c r="DX145" s="2">
+      <c r="DX145" s="14">
         <f>IF(ABS(DX148)&gt;ABS(DX150), DX148, DX150)</f>
         <v>0.25340932230427243</v>
       </c>
-      <c r="DY145" s="2">
+      <c r="DY145" s="14">
         <f>IF(ABS(DY148)&gt;ABS(DY150), DY148, DY150)</f>
         <v>0.1944068465604675</v>
       </c>
-      <c r="DZ145" s="2">
+      <c r="DZ145" s="14">
         <f>IF(ABS(DZ148)&gt;ABS(DZ150), DZ148, DZ150)</f>
         <v>0.31896509555273944</v>
       </c>
-      <c r="EA145" s="2">
+      <c r="EA145" s="14">
         <f>IF(ABS(EA148)&gt;ABS(EA150), EA148, EA150)</f>
         <v>0.33009481195408785</v>
       </c>
-      <c r="EB145" s="2">
+      <c r="EB145" s="14">
         <f>IF(ABS(EB148)&gt;ABS(EB150), EB148, EB150)</f>
         <v>0.43353792909467215</v>
       </c>
-      <c r="EC145" s="2">
+      <c r="EC145" s="14">
         <f>IF(ABS(EC148)&gt;ABS(EC150), EC148, EC150)</f>
         <v>0.49820941388308637</v>
       </c>
-      <c r="ED145" s="2">
+      <c r="ED145" s="14">
         <f>IF(ABS(ED148)&gt;ABS(ED150), ED148, ED150)</f>
         <v>0.65927780542131442</v>
       </c>
-      <c r="EE145" s="2">
+      <c r="EE145" s="14">
         <f>IF(ABS(EE148)&gt;ABS(EE150), EE148, EE150)</f>
         <v>0.7395917815399331</v>
       </c>
-      <c r="EF145" s="2">
+      <c r="EF145" s="14">
         <f>IF(ABS(EF148)&gt;ABS(EF150), EF148, EF150)</f>
         <v>0.67542813392473622</v>
       </c>
-      <c r="EG145" s="2">
+      <c r="EG145" s="14">
         <f>IF(ABS(EG148)&gt;ABS(EG150), EG148, EG150)</f>
         <v>0.8703435067137687</v>
       </c>
-      <c r="EH145" s="2">
+      <c r="EH145" s="14">
         <f>IF(ABS(EH148)&gt;ABS(EH150), EH148, EH150)</f>
         <v>0.87616882181056455</v>
       </c>
-      <c r="EI145" s="2">
+      <c r="EI145" s="14">
         <f>IF(ABS(EI148)&gt;ABS(EI150), EI148, EI150)</f>
         <v>0.8225926756306321</v>
       </c>
-      <c r="EJ145" s="2">
+      <c r="EJ145" s="14">
         <f>IF(ABS(EJ148)&gt;ABS(EJ150), EJ148, EJ150)</f>
         <v>0.74151477896360851</v>
       </c>
-      <c r="EK145" s="2">
+      <c r="EK145" s="14">
         <f>IF(ABS(EK148)&gt;ABS(EK150), EK148, EK150)</f>
         <v>0.64186707212368754</v>
       </c>
       <c r="EN145" s="1"/>
     </row>
     <row r="146" spans="1:144" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -30201,12 +30202,12 @@
       <c r="EN146" s="1"/>
     </row>
     <row r="147" spans="1:144" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -30329,7 +30330,7 @@
       <c r="DT147" s="1"/>
       <c r="DU147" s="1"/>
       <c r="DV147" s="1"/>
-      <c r="DW147" s="13" t="str">
+      <c r="DW147" s="12" t="str">
         <f>IF(ABS(DW148)&gt;ABS(DW150), DW149&amp;"", DW151&amp;"")</f>
         <v>s1</v>
       </c>
@@ -30392,12 +30393,12 @@
       <c r="EN147" s="1"/>
     </row>
     <row r="148" spans="1:144" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="9"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="8"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -30520,75 +30521,75 @@
       <c r="DT148" s="1"/>
       <c r="DU148" s="1"/>
       <c r="DV148" s="1"/>
-      <c r="DW148" s="10">
+      <c r="DW148" s="15">
         <f>MIN(DW127:DW141)</f>
         <v>-0.13005233897639909</v>
       </c>
-      <c r="DX148" s="10">
+      <c r="DX148" s="15">
         <f>MIN(DX127:DX141)</f>
         <v>-0.12551252640784033</v>
       </c>
-      <c r="DY148" s="10">
+      <c r="DY148" s="15">
         <f>MIN(DY127:DY141)</f>
         <v>-2.4576669571120632E-2</v>
       </c>
-      <c r="DZ148" s="10">
+      <c r="DZ148" s="15">
         <f>MIN(DZ127:DZ141)</f>
         <v>-0.10721050975047801</v>
       </c>
-      <c r="EA148" s="10">
+      <c r="EA148" s="15">
         <f>MIN(EA127:EA141)</f>
         <v>-0.12551252640784033</v>
       </c>
-      <c r="EB148" s="10">
+      <c r="EB148" s="15">
         <f>MIN(EB127:EB141)</f>
         <v>-2.8885003952790325E-2</v>
       </c>
-      <c r="EC148" s="10">
+      <c r="EC148" s="15">
         <f>MIN(EC127:EC141)</f>
         <v>5.7079290617209996E-2</v>
       </c>
-      <c r="ED148" s="10">
+      <c r="ED148" s="15">
         <f>MIN(ED127:ED141)</f>
         <v>-2.7555317064532858E-2</v>
       </c>
-      <c r="EE148" s="10">
+      <c r="EE148" s="15">
         <f>MIN(EE127:EE141)</f>
         <v>7.0609746899169393E-2</v>
       </c>
-      <c r="EF148" s="10">
+      <c r="EF148" s="15">
         <f>MIN(EF127:EF141)</f>
         <v>-0.13005233897639909</v>
       </c>
-      <c r="EG148" s="10">
+      <c r="EG148" s="15">
         <f>MIN(EG127:EG141)</f>
         <v>4.1271976314520724E-2</v>
       </c>
-      <c r="EH148" s="10">
+      <c r="EH148" s="15">
         <f>MIN(EH127:EH141)</f>
         <v>5.9141618091584969E-2</v>
       </c>
-      <c r="EI148" s="10">
+      <c r="EI148" s="15">
         <f>MIN(EI127:EI141)</f>
         <v>0.10889714285533966</v>
       </c>
-      <c r="EJ148" s="10">
+      <c r="EJ148" s="15">
         <f>MIN(EJ127:EJ141)</f>
         <v>-2.5826511878518671E-2</v>
       </c>
-      <c r="EK148" s="10">
+      <c r="EK148" s="15">
         <f>MIN(EK127:EK141)</f>
         <v>0.10583688792703826</v>
       </c>
       <c r="EN148" s="1"/>
     </row>
     <row r="149" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="9"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="8"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -30711,75 +30712,75 @@
       <c r="DT149" s="1"/>
       <c r="DU149" s="1"/>
       <c r="DV149" s="1"/>
-      <c r="DW149" s="10" t="str">
+      <c r="DW149" s="9" t="str">
         <f>VLOOKUP(DW148,DW$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s9</v>
       </c>
-      <c r="DX149" s="10" t="str">
+      <c r="DX149" s="9" t="str">
         <f>VLOOKUP(DX148,DX$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s4</v>
       </c>
-      <c r="DY149" s="10" t="str">
+      <c r="DY149" s="9" t="str">
         <f>VLOOKUP(DY148,DY$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s1</v>
       </c>
-      <c r="DZ149" s="10" t="str">
+      <c r="DZ149" s="9" t="str">
         <f>VLOOKUP(DZ148,DZ$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EA149" s="10" t="str">
+      <c r="EA149" s="9" t="str">
         <f>VLOOKUP(EA148,EA$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s1</v>
       </c>
-      <c r="EB149" s="10" t="str">
+      <c r="EB149" s="9" t="str">
         <f>VLOOKUP(EB148,EB$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EC149" s="10" t="str">
+      <c r="EC149" s="9" t="str">
         <f>VLOOKUP(EC148,EC$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="ED149" s="10" t="str">
+      <c r="ED149" s="9" t="str">
         <f>VLOOKUP(ED148,ED$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EE149" s="10" t="str">
+      <c r="EE149" s="9" t="str">
         <f>VLOOKUP(EE148,EE$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EF149" s="10" t="str">
+      <c r="EF149" s="9" t="str">
         <f>VLOOKUP(EF148,EF$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EG149" s="10" t="str">
+      <c r="EG149" s="9" t="str">
         <f>VLOOKUP(EG148,EG$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EH149" s="10" t="str">
+      <c r="EH149" s="9" t="str">
         <f>VLOOKUP(EH148,EH$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EI149" s="10" t="str">
+      <c r="EI149" s="9" t="str">
         <f>VLOOKUP(EI148,EI$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s2</v>
       </c>
-      <c r="EJ149" s="10" t="str">
+      <c r="EJ149" s="9" t="str">
         <f>VLOOKUP(EJ148,EJ$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EK149" s="10" t="str">
+      <c r="EK149" s="9" t="str">
         <f>VLOOKUP(EK148,EK$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
       <c r="EN149" s="1"/>
     </row>
     <row r="150" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="9"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="8"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -30902,75 +30903,75 @@
       <c r="DT150" s="1"/>
       <c r="DU150" s="1"/>
       <c r="DV150" s="1"/>
-      <c r="DW150" s="10">
+      <c r="DW150" s="15">
         <f>LARGE(DW127:DW141,2)</f>
         <v>0.25340932230427243</v>
       </c>
-      <c r="DX150" s="10">
+      <c r="DX150" s="15">
         <f>LARGE(DX127:DX141,2)</f>
         <v>0.25340932230427243</v>
       </c>
-      <c r="DY150" s="10">
+      <c r="DY150" s="15">
         <f>LARGE(DY127:DY141,2)</f>
         <v>0.1944068465604675</v>
       </c>
-      <c r="DZ150" s="10">
+      <c r="DZ150" s="15">
         <f>LARGE(DZ127:DZ141,2)</f>
         <v>0.31896509555273944</v>
       </c>
-      <c r="EA150" s="10">
+      <c r="EA150" s="15">
         <f>LARGE(EA127:EA141,2)</f>
         <v>0.33009481195408785</v>
       </c>
-      <c r="EB150" s="10">
+      <c r="EB150" s="15">
         <f>LARGE(EB127:EB141,2)</f>
         <v>0.43353792909467215</v>
       </c>
-      <c r="EC150" s="10">
+      <c r="EC150" s="15">
         <f>LARGE(EC127:EC141,2)</f>
         <v>0.49820941388308637</v>
       </c>
-      <c r="ED150" s="10">
+      <c r="ED150" s="15">
         <f>LARGE(ED127:ED141,2)</f>
         <v>0.65927780542131442</v>
       </c>
-      <c r="EE150" s="10">
+      <c r="EE150" s="15">
         <f>LARGE(EE127:EE141,2)</f>
         <v>0.7395917815399331</v>
       </c>
-      <c r="EF150" s="10">
+      <c r="EF150" s="15">
         <f>LARGE(EF127:EF141,2)</f>
         <v>0.67542813392473622</v>
       </c>
-      <c r="EG150" s="10">
+      <c r="EG150" s="15">
         <f>LARGE(EG127:EG141,2)</f>
         <v>0.8703435067137687</v>
       </c>
-      <c r="EH150" s="10">
+      <c r="EH150" s="15">
         <f>LARGE(EH127:EH141,2)</f>
         <v>0.87616882181056455</v>
       </c>
-      <c r="EI150" s="10">
+      <c r="EI150" s="15">
         <f>LARGE(EI127:EI141,2)</f>
         <v>0.8225926756306321</v>
       </c>
-      <c r="EJ150" s="10">
+      <c r="EJ150" s="15">
         <f>LARGE(EJ127:EJ141,2)</f>
         <v>0.74151477896360851</v>
       </c>
-      <c r="EK150" s="10">
+      <c r="EK150" s="15">
         <f>LARGE(EK127:EK141,2)</f>
         <v>0.64186707212368754</v>
       </c>
       <c r="EN150" s="1"/>
     </row>
     <row r="151" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="9"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="8"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -31093,70 +31094,70 @@
       <c r="DT151" s="1"/>
       <c r="DU151" s="1"/>
       <c r="DV151" s="1"/>
-      <c r="DW151" s="10" t="str">
+      <c r="DW151" s="9" t="str">
         <f>VLOOKUP(DW150,DW$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s1</v>
       </c>
-      <c r="DX151" s="10" t="str">
+      <c r="DX151" s="9" t="str">
         <f>VLOOKUP(DX150,DX$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="DY151" s="10" t="str">
+      <c r="DY151" s="9" t="str">
         <f>VLOOKUP(DY150,DY$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s8</v>
       </c>
-      <c r="DZ151" s="10" t="str">
+      <c r="DZ151" s="9" t="str">
         <f>VLOOKUP(DZ150,DZ$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>a0</v>
       </c>
-      <c r="EA151" s="10" t="str">
+      <c r="EA151" s="9" t="str">
         <f>VLOOKUP(EA150,EA$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>q0</v>
       </c>
-      <c r="EB151" s="10" t="str">
+      <c r="EB151" s="9" t="str">
         <f>VLOOKUP(EB150,EB$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>q0</v>
       </c>
-      <c r="EC151" s="10" t="str">
+      <c r="EC151" s="9" t="str">
         <f>VLOOKUP(EC150,EC$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s7</v>
       </c>
-      <c r="ED151" s="10" t="str">
+      <c r="ED151" s="9" t="str">
         <f>VLOOKUP(ED150,ED$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>q0</v>
       </c>
-      <c r="EE151" s="10" t="str">
+      <c r="EE151" s="9" t="str">
         <f>VLOOKUP(EE150,EE$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>q0</v>
       </c>
-      <c r="EF151" s="10" t="str">
+      <c r="EF151" s="9" t="str">
         <f>VLOOKUP(EF150,EF$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>q0</v>
       </c>
-      <c r="EG151" s="10" t="str">
+      <c r="EG151" s="9" t="str">
         <f>VLOOKUP(EG150,EG$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>q1</v>
       </c>
-      <c r="EH151" s="10" t="str">
+      <c r="EH151" s="9" t="str">
         <f>VLOOKUP(EH150,EH$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>q0</v>
       </c>
-      <c r="EI151" s="10" t="str">
+      <c r="EI151" s="9" t="str">
         <f>VLOOKUP(EI150,EI$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>q0</v>
       </c>
-      <c r="EJ151" s="10" t="str">
+      <c r="EJ151" s="9" t="str">
         <f>VLOOKUP(EJ150,EJ$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>q2</v>
       </c>
-      <c r="EK151" s="10" t="str">
+      <c r="EK151" s="9" t="str">
         <f>VLOOKUP(EK150,EK$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>q1</v>
       </c>
       <c r="EN151" s="1"/>
     </row>
     <row r="152" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B152" s="1"/>
@@ -31302,12 +31303,12 @@
       <c r="EN152" s="1"/>
     </row>
     <row r="153" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -31478,12 +31479,12 @@
       <c r="EN153" s="1"/>
     </row>
     <row r="154" spans="1:144" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -31654,12 +31655,12 @@
       <c r="EN154" s="1"/>
     </row>
     <row r="155" spans="1:144" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -31782,75 +31783,75 @@
       <c r="DT155" s="1"/>
       <c r="DU155" s="1"/>
       <c r="DV155" s="1"/>
-      <c r="DW155" s="2">
+      <c r="DW155" s="14">
         <f>IF(ABS(DW158)&gt;ABS(DW160), DW158, DW160)</f>
         <v>0.25340932230427243</v>
       </c>
-      <c r="DX155" s="2">
+      <c r="DX155" s="14">
         <f>IF(ABS(DX158)&gt;ABS(DX160), DX158, DX160)</f>
         <v>0.25340932230427243</v>
       </c>
-      <c r="DY155" s="2">
+      <c r="DY155" s="14">
         <f>IF(ABS(DY158)&gt;ABS(DY160), DY158, DY160)</f>
         <v>0.1944068465604675</v>
       </c>
-      <c r="DZ155" s="2">
+      <c r="DZ155" s="14">
         <f>IF(ABS(DZ158)&gt;ABS(DZ160), DZ158, DZ160)</f>
         <v>0.24985138009405394</v>
       </c>
-      <c r="EA155" s="2">
+      <c r="EA155" s="14">
         <f>IF(ABS(EA158)&gt;ABS(EA160), EA158, EA160)</f>
         <v>0.25752463447192236</v>
       </c>
-      <c r="EB155" s="2">
+      <c r="EB155" s="14">
         <f>IF(ABS(EB158)&gt;ABS(EB160), EB158, EB160)</f>
         <v>0.40407639265367634</v>
       </c>
-      <c r="EC155" s="2">
+      <c r="EC155" s="14">
         <f>IF(ABS(EC158)&gt;ABS(EC160), EC158, EC160)</f>
         <v>0.49820941388308637</v>
       </c>
-      <c r="ED155" s="2">
+      <c r="ED155" s="14">
         <f>IF(ABS(ED158)&gt;ABS(ED160), ED158, ED160)</f>
         <v>0.57807884694259526</v>
       </c>
-      <c r="EE155" s="2">
+      <c r="EE155" s="14">
         <f>IF(ABS(EE158)&gt;ABS(EE160), EE158, EE160)</f>
         <v>0.63234195119134939</v>
       </c>
-      <c r="EF155" s="2">
+      <c r="EF155" s="14">
         <f>IF(ABS(EF158)&gt;ABS(EF160), EF158, EF160)</f>
         <v>0.63234195119134939</v>
       </c>
-      <c r="EG155" s="2">
+      <c r="EG155" s="14">
         <f>IF(ABS(EG158)&gt;ABS(EG160), EG158, EG160)</f>
         <v>0.66666038576667019</v>
       </c>
-      <c r="EH155" s="2">
+      <c r="EH155" s="14">
         <f>IF(ABS(EH158)&gt;ABS(EH160), EH158, EH160)</f>
         <v>0.59301865300944034</v>
       </c>
-      <c r="EI155" s="2">
+      <c r="EI155" s="14">
         <f>IF(ABS(EI158)&gt;ABS(EI160), EI158, EI160)</f>
         <v>0.59102485613965761</v>
       </c>
-      <c r="EJ155" s="2">
+      <c r="EJ155" s="14">
         <f>IF(ABS(EJ158)&gt;ABS(EJ160), EJ158, EJ160)</f>
         <v>0.53717873643173986</v>
       </c>
-      <c r="EK155" s="2">
+      <c r="EK155" s="14">
         <f>IF(ABS(EK158)&gt;ABS(EK160), EK158, EK160)</f>
         <v>0.38454939348551492</v>
       </c>
       <c r="EN155" s="1"/>
     </row>
     <row r="156" spans="1:144" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -32036,12 +32037,12 @@
       <c r="EN156" s="1"/>
     </row>
     <row r="157" spans="1:144" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -32227,12 +32228,12 @@
       <c r="EN157" s="1"/>
     </row>
     <row r="158" spans="1:144" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="9"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="8"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -32355,75 +32356,75 @@
       <c r="DT158" s="1"/>
       <c r="DU158" s="1"/>
       <c r="DV158" s="1"/>
-      <c r="DW158" s="10">
+      <c r="DW158" s="15">
         <f>MIN(DW127:DW136)</f>
         <v>-0.13005233897639909</v>
       </c>
-      <c r="DX158" s="10">
+      <c r="DX158" s="15">
         <f t="shared" ref="DX158:EK158" si="29">MIN(DX127:DX136)</f>
         <v>-0.12551252640784033</v>
       </c>
-      <c r="DY158" s="10">
+      <c r="DY158" s="15">
         <f t="shared" si="29"/>
         <v>-2.4576669571120632E-2</v>
       </c>
-      <c r="DZ158" s="10">
+      <c r="DZ158" s="15">
         <f t="shared" si="29"/>
         <v>-0.10721050975047801</v>
       </c>
-      <c r="EA158" s="10">
+      <c r="EA158" s="15">
         <f t="shared" si="29"/>
         <v>-0.12551252640784033</v>
       </c>
-      <c r="EB158" s="10">
+      <c r="EB158" s="15">
         <f t="shared" si="29"/>
         <v>-2.8885003952790325E-2</v>
       </c>
-      <c r="EC158" s="10">
+      <c r="EC158" s="15">
         <f t="shared" si="29"/>
         <v>5.7079290617209996E-2</v>
       </c>
-      <c r="ED158" s="10">
+      <c r="ED158" s="15">
         <f t="shared" si="29"/>
         <v>-2.7555317064532858E-2</v>
       </c>
-      <c r="EE158" s="10">
+      <c r="EE158" s="15">
         <f t="shared" si="29"/>
         <v>7.0609746899169393E-2</v>
       </c>
-      <c r="EF158" s="10">
+      <c r="EF158" s="15">
         <f t="shared" si="29"/>
         <v>-0.13005233897639909</v>
       </c>
-      <c r="EG158" s="10">
+      <c r="EG158" s="15">
         <f t="shared" si="29"/>
         <v>4.1271976314520724E-2</v>
       </c>
-      <c r="EH158" s="10">
+      <c r="EH158" s="15">
         <f t="shared" si="29"/>
         <v>5.9141618091584969E-2</v>
       </c>
-      <c r="EI158" s="10">
+      <c r="EI158" s="15">
         <f t="shared" si="29"/>
         <v>0.10889714285533966</v>
       </c>
-      <c r="EJ158" s="10">
+      <c r="EJ158" s="15">
         <f t="shared" si="29"/>
         <v>-2.5826511878518671E-2</v>
       </c>
-      <c r="EK158" s="10">
+      <c r="EK158" s="15">
         <f t="shared" si="29"/>
         <v>0.10583688792703826</v>
       </c>
       <c r="EN158" s="1"/>
     </row>
     <row r="159" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="9"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="8"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -32546,75 +32547,75 @@
       <c r="DT159" s="1"/>
       <c r="DU159" s="1"/>
       <c r="DV159" s="1"/>
-      <c r="DW159" s="10" t="str">
+      <c r="DW159" s="9" t="str">
         <f>VLOOKUP(DW158,DW$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s9</v>
       </c>
-      <c r="DX159" s="10" t="str">
+      <c r="DX159" s="9" t="str">
         <f>VLOOKUP(DX158,DX$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s4</v>
       </c>
-      <c r="DY159" s="10" t="str">
+      <c r="DY159" s="9" t="str">
         <f>VLOOKUP(DY158,DY$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s1</v>
       </c>
-      <c r="DZ159" s="10" t="str">
+      <c r="DZ159" s="9" t="str">
         <f>VLOOKUP(DZ158,DZ$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EA159" s="10" t="str">
+      <c r="EA159" s="9" t="str">
         <f>VLOOKUP(EA158,EA$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s1</v>
       </c>
-      <c r="EB159" s="10" t="str">
+      <c r="EB159" s="9" t="str">
         <f>VLOOKUP(EB158,EB$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EC159" s="10" t="str">
+      <c r="EC159" s="9" t="str">
         <f>VLOOKUP(EC158,EC$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="ED159" s="10" t="str">
+      <c r="ED159" s="9" t="str">
         <f>VLOOKUP(ED158,ED$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EE159" s="10" t="str">
+      <c r="EE159" s="9" t="str">
         <f>VLOOKUP(EE158,EE$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EF159" s="10" t="str">
+      <c r="EF159" s="9" t="str">
         <f>VLOOKUP(EF158,EF$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EG159" s="10" t="str">
+      <c r="EG159" s="9" t="str">
         <f>VLOOKUP(EG158,EG$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EH159" s="10" t="str">
+      <c r="EH159" s="9" t="str">
         <f>VLOOKUP(EH158,EH$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EI159" s="10" t="str">
+      <c r="EI159" s="9" t="str">
         <f>VLOOKUP(EI158,EI$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s2</v>
       </c>
-      <c r="EJ159" s="10" t="str">
+      <c r="EJ159" s="9" t="str">
         <f>VLOOKUP(EJ158,EJ$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="EK159" s="10" t="str">
+      <c r="EK159" s="9" t="str">
         <f>VLOOKUP(EK158,EK$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
       <c r="EN159" s="1"/>
     </row>
     <row r="160" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="9"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="8"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -32737,75 +32738,75 @@
       <c r="DT160" s="1"/>
       <c r="DU160" s="1"/>
       <c r="DV160" s="1"/>
-      <c r="DW160" s="10">
+      <c r="DW160" s="15">
         <f>LARGE(DW127:DW136,2)</f>
         <v>0.25340932230427243</v>
       </c>
-      <c r="DX160" s="10">
+      <c r="DX160" s="15">
         <f t="shared" ref="DX160:EK160" si="30">LARGE(DX127:DX136,2)</f>
         <v>0.25340932230427243</v>
       </c>
-      <c r="DY160" s="10">
+      <c r="DY160" s="15">
         <f t="shared" si="30"/>
         <v>0.1944068465604675</v>
       </c>
-      <c r="DZ160" s="10">
+      <c r="DZ160" s="15">
         <f t="shared" si="30"/>
         <v>0.24985138009405394</v>
       </c>
-      <c r="EA160" s="10">
+      <c r="EA160" s="15">
         <f t="shared" si="30"/>
         <v>0.25752463447192236</v>
       </c>
-      <c r="EB160" s="10">
+      <c r="EB160" s="15">
         <f t="shared" si="30"/>
         <v>0.40407639265367634</v>
       </c>
-      <c r="EC160" s="10">
+      <c r="EC160" s="15">
         <f t="shared" si="30"/>
         <v>0.49820941388308637</v>
       </c>
-      <c r="ED160" s="10">
+      <c r="ED160" s="15">
         <f t="shared" si="30"/>
         <v>0.57807884694259526</v>
       </c>
-      <c r="EE160" s="10">
+      <c r="EE160" s="15">
         <f t="shared" si="30"/>
         <v>0.63234195119134939</v>
       </c>
-      <c r="EF160" s="10">
+      <c r="EF160" s="15">
         <f t="shared" si="30"/>
         <v>0.63234195119134939</v>
       </c>
-      <c r="EG160" s="10">
+      <c r="EG160" s="15">
         <f t="shared" si="30"/>
         <v>0.66666038576667019</v>
       </c>
-      <c r="EH160" s="10">
+      <c r="EH160" s="15">
         <f t="shared" si="30"/>
         <v>0.59301865300944034</v>
       </c>
-      <c r="EI160" s="10">
+      <c r="EI160" s="15">
         <f t="shared" si="30"/>
         <v>0.59102485613965761</v>
       </c>
-      <c r="EJ160" s="10">
+      <c r="EJ160" s="15">
         <f t="shared" si="30"/>
         <v>0.53717873643173986</v>
       </c>
-      <c r="EK160" s="10">
+      <c r="EK160" s="15">
         <f t="shared" si="30"/>
         <v>0.38454939348551492</v>
       </c>
       <c r="EN160" s="1"/>
     </row>
     <row r="161" spans="1:144" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="9"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="8"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -32928,63 +32929,63 @@
       <c r="DT161" s="1"/>
       <c r="DU161" s="1"/>
       <c r="DV161" s="1"/>
-      <c r="DW161" s="10" t="str">
+      <c r="DW161" s="9" t="str">
         <f>VLOOKUP(DW160,DW$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s1</v>
       </c>
-      <c r="DX161" s="10" t="str">
+      <c r="DX161" s="9" t="str">
         <f>VLOOKUP(DX160,DX$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s0</v>
       </c>
-      <c r="DY161" s="10" t="str">
+      <c r="DY161" s="9" t="str">
         <f>VLOOKUP(DY160,DY$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s8</v>
       </c>
-      <c r="DZ161" s="10" t="str">
+      <c r="DZ161" s="9" t="str">
         <f>VLOOKUP(DZ160,DZ$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s7</v>
       </c>
-      <c r="EA161" s="10" t="str">
+      <c r="EA161" s="9" t="str">
         <f>VLOOKUP(EA160,EA$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s5</v>
       </c>
-      <c r="EB161" s="10" t="str">
+      <c r="EB161" s="9" t="str">
         <f>VLOOKUP(EB160,EB$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s7</v>
       </c>
-      <c r="EC161" s="10" t="str">
+      <c r="EC161" s="9" t="str">
         <f>VLOOKUP(EC160,EC$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s7</v>
       </c>
-      <c r="ED161" s="10" t="str">
+      <c r="ED161" s="9" t="str">
         <f>VLOOKUP(ED160,ED$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s8</v>
       </c>
-      <c r="EE161" s="10" t="str">
+      <c r="EE161" s="9" t="str">
         <f>VLOOKUP(EE160,EE$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s9</v>
       </c>
-      <c r="EF161" s="10" t="str">
+      <c r="EF161" s="9" t="str">
         <f>VLOOKUP(EF160,EF$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s8</v>
       </c>
-      <c r="EG161" s="10" t="str">
+      <c r="EG161" s="9" t="str">
         <f>VLOOKUP(EG160,EG$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s9</v>
       </c>
-      <c r="EH161" s="10" t="str">
+      <c r="EH161" s="9" t="str">
         <f>VLOOKUP(EH160,EH$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s8</v>
       </c>
-      <c r="EI161" s="10" t="str">
+      <c r="EI161" s="9" t="str">
         <f>VLOOKUP(EI160,EI$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s7</v>
       </c>
-      <c r="EJ161" s="10" t="str">
+      <c r="EJ161" s="9" t="str">
         <f>VLOOKUP(EJ160,EJ$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s8</v>
       </c>
-      <c r="EK161" s="10" t="str">
+      <c r="EK161" s="9" t="str">
         <f>VLOOKUP(EK160,EK$127:$EL$141,(16-(COLUMN()-COLUMN($DW$149))),FALSE)</f>
         <v>s8</v>
       </c>
@@ -33082,5 +33083,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>